--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1637.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1637.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.050797694191016</v>
+        <v>1.057683229446411</v>
       </c>
       <c r="B1">
-        <v>2.90816555886234</v>
+        <v>3.713434457778931</v>
       </c>
       <c r="C1">
-        <v>3.707480303504926</v>
+        <v>3.73530912399292</v>
       </c>
       <c r="D1">
-        <v>2.425549838382477</v>
+        <v>3.193524837493896</v>
       </c>
       <c r="E1">
-        <v>1.18438561002977</v>
+        <v>1.264779210090637</v>
       </c>
     </row>
   </sheetData>
